--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_178.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_178.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.090897, 16.615704)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(60.180884, 68.841927)]</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D/3']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4545454545454545</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(78.061859, 81.614512)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(52.711123, 59.224321)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08892763731473409</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D:min'], ['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'Bb', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.413204, 28.644826), (27.789047, 31.109501)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.544126, 32.259319), (13.648526, 21.12535)]</t>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1169415292353823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['C', 'Bb/5', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:00:02.537346', '0:00:08.504874')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:31.217551', '0:00:34.874693')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4222222222222222</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F/2', 'C', 'F', 'C/3'], ['C', 'F/5', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[['A', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:57.758000', '0:01:05.204000'), ('0:00:05.121000', '0:00:13.333000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:46.610521'), ('0:00:43.754467', '0:01:09.517005')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:08.340000', '0:00:11.680000'), ('0:00:07.840000', '0:00:11.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:03.100000', '0:00:05.580000'), ('0:00:00.500000', '0:00:03.900000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/b7'], ['D', 'D/b7', 'G/3']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972), (32.879478, 37.291269)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.44, 34.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(34.86, 39.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
